--- a/Planilha_antiga.xlsx
+++ b/Planilha_antiga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="79">
   <si>
     <t>channel</t>
   </si>
@@ -50,9 +50,15 @@
     <t>p3deliver</t>
   </si>
   <si>
+    <t>Alias</t>
+  </si>
+  <si>
     <t>x400mt2</t>
   </si>
   <si>
+    <t>list</t>
+  </si>
+  <si>
     <t>x400mt</t>
   </si>
   <si>
@@ -65,21 +71,45 @@
     <t>2016-01-15</t>
   </si>
   <si>
+    <t>2021-08-23</t>
+  </si>
+  <si>
+    <t>2019-03-22</t>
+  </si>
+  <si>
+    <t>2018-02-07</t>
+  </si>
+  <si>
     <t>2021-12-15</t>
   </si>
   <si>
+    <t>SBATTESB</t>
+  </si>
+  <si>
     <t>SBATTEST</t>
   </si>
   <si>
+    <t>SBAUTESB</t>
+  </si>
+  <si>
     <t>SBAUTEST</t>
   </si>
   <si>
     <t>SBAXTEST</t>
   </si>
   <si>
+    <t>SBAZTESB</t>
+  </si>
+  <si>
+    <t>SBAZTESC</t>
+  </si>
+  <si>
     <t>SBAZTEST</t>
   </si>
   <si>
+    <t>SBBGTESB</t>
+  </si>
+  <si>
     <t>SBBGTEST</t>
   </si>
   <si>
@@ -92,9 +122,30 @@
     <t>SBBQTEST</t>
   </si>
   <si>
+    <t>SBBRTESA</t>
+  </si>
+  <si>
+    <t>SBBRTESB</t>
+  </si>
+  <si>
+    <t>SBBRTESC</t>
+  </si>
+  <si>
+    <t>SBBRTESD</t>
+  </si>
+  <si>
+    <t>SBBRTESR</t>
+  </si>
+  <si>
     <t>SBBRTEST</t>
   </si>
   <si>
+    <t>SBBRTESY</t>
+  </si>
+  <si>
+    <t>SBBRZTZA</t>
+  </si>
+  <si>
     <t>SBCFTEST</t>
   </si>
   <si>
@@ -107,6 +158,12 @@
     <t>SBPVTEST</t>
   </si>
   <si>
+    <t>SBRFTESB</t>
+  </si>
+  <si>
+    <t>SBRFTESC</t>
+  </si>
+  <si>
     <t>SBRFTEST</t>
   </si>
   <si>
@@ -146,6 +203,12 @@
     <t>BRASÍLIA-DF</t>
   </si>
   <si>
+    <t>Não foi registrado</t>
+  </si>
+  <si>
+    <t>BRASÍLIA</t>
+  </si>
+  <si>
     <t>CONFINS-MG</t>
   </si>
   <si>
@@ -158,6 +221,9 @@
     <t>PORTO VELHO - RM</t>
   </si>
   <si>
+    <t>RECIFE-PE</t>
+  </si>
+  <si>
     <t>RECIFE - PE</t>
   </si>
   <si>
@@ -167,7 +233,16 @@
     <t>VITÓRIA DA CONQUISTA - BA</t>
   </si>
   <si>
+    <t>xxxxx</t>
+  </si>
+  <si>
     <t>Não encontrado</t>
+  </si>
+  <si>
+    <t>TWR-BR</t>
+  </si>
+  <si>
+    <t>XXXXXX</t>
   </si>
   <si>
     <t>(xx) xxxx-xxxx</t>
@@ -538,7 +613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -587,28 +662,28 @@
         <v>44201</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -622,28 +697,28 @@
         <v>44201</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -657,28 +732,28 @@
         <v>44201</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -689,31 +764,31 @@
         <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>42383</v>
+        <v>44201</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -727,28 +802,28 @@
         <v>44201</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -759,31 +834,31 @@
         <v>10</v>
       </c>
       <c r="C7" s="2">
-        <v>42348</v>
+        <v>42383</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -794,31 +869,31 @@
         <v>10</v>
       </c>
       <c r="C8" s="2">
-        <v>44201</v>
+        <v>42383</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -829,31 +904,31 @@
         <v>10</v>
       </c>
       <c r="C9" s="2">
-        <v>44201</v>
+        <v>42383</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -861,34 +936,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2">
-        <v>43150</v>
+        <v>44201</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -896,34 +971,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2">
-        <v>42348</v>
+        <v>44201</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -934,31 +1009,31 @@
         <v>10</v>
       </c>
       <c r="C12" s="2">
-        <v>44201</v>
+        <v>42348</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -966,34 +1041,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2">
-        <v>42348</v>
+        <v>44201</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1007,28 +1082,28 @@
         <v>44201</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1036,34 +1111,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2">
-        <v>42348</v>
+        <v>43150</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1071,34 +1146,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2">
-        <v>44201</v>
+        <v>44422</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="K16" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1109,31 +1184,521 @@
         <v>10</v>
       </c>
       <c r="C17" s="2">
+        <v>43150</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2">
+        <v>43150</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2">
+        <v>43138</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2">
+        <v>43138</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2">
+        <v>43138</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2">
+        <v>43150</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2">
+        <v>42348</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2">
         <v>44201</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" t="s">
+        <v>77</v>
+      </c>
+      <c r="K24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
         <v>14</v>
       </c>
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="C25" s="2">
+        <v>42348</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="2">
+        <v>44201</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="2">
+        <v>42348</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27" t="s">
+        <v>76</v>
+      </c>
+      <c r="J27" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="2">
+        <v>42348</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J28" t="s">
+        <v>77</v>
+      </c>
+      <c r="K28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="2">
+        <v>42348</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
         <v>49</v>
       </c>
-      <c r="H17" t="s">
+      <c r="F29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29" t="s">
+        <v>76</v>
+      </c>
+      <c r="J29" t="s">
+        <v>77</v>
+      </c>
+      <c r="K29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44201</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
         <v>50</v>
       </c>
-      <c r="I17" t="s">
+      <c r="F30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" t="s">
+        <v>76</v>
+      </c>
+      <c r="J30" t="s">
+        <v>77</v>
+      </c>
+      <c r="K30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="2">
+        <v>44201</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
         <v>51</v>
       </c>
-      <c r="J17" t="s">
-        <v>52</v>
-      </c>
-      <c r="K17" t="s">
-        <v>53</v>
+      <c r="F31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I31" t="s">
+        <v>76</v>
+      </c>
+      <c r="J31" t="s">
+        <v>77</v>
+      </c>
+      <c r="K31" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
